--- a/CPPAutomation/Mapping and Matrix/Testcase Matrix/DepressionScreening.xlsx
+++ b/CPPAutomation/Mapping and Matrix/Testcase Matrix/DepressionScreening.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Verify if comments field is added to history and comments show correctly</t>
+  </si>
+  <si>
+    <t>Validate static text</t>
+  </si>
+  <si>
+    <t>Depression screening should be open</t>
+  </si>
+  <si>
+    <t>Validate if the static text exists - Review the medications and Comorbid management before beginning the Depression Screen</t>
+  </si>
+  <si>
+    <t>The static text should be displayed</t>
   </si>
 </sst>
 </file>
@@ -491,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,40 +558,42 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
@@ -589,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -603,20 +617,20 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -625,13 +639,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="8" t="s">
@@ -642,17 +656,35 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8" t="s">
         <v>13</v>
       </c>
     </row>
